--- a/datos_softplus.xlsx
+++ b/datos_softplus.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,6 +605,78 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>25</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.007219285964965821</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1173.530435581207</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1200.002410373688</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1200.002575826645</v>
+      </c>
+      <c r="G6" t="n">
+        <v>197.92944</v>
+      </c>
+      <c r="H6" t="n">
+        <v>474.440336</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1132.495732</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2217.82054</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>50</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.006082329750061035</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1200.00350625515</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>211.937292</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1989.74491</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_softplus.xlsx
+++ b/datos_softplus.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,6 +677,74 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>50</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.007901849746704102</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1200.019933810234</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1200.004504704475</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>167.477564</v>
+      </c>
+      <c r="H8" t="n">
+        <v>910.1199680000001</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5310.302799999999</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>50</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.006457552909851074</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1200.483430790901</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1200.004457950592</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1200.004847407341</v>
+      </c>
+      <c r="G9" t="n">
+        <v>151.852546</v>
+      </c>
+      <c r="H9" t="n">
+        <v>714.0572439999997</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3423.423768</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9e+19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos_softplus.xlsx
+++ b/datos_softplus.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,6 +745,222 @@
         <v>9e+19</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.005636024475097656</v>
+      </c>
+      <c r="D10" t="n">
+        <v>182.274214720726</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>90.16584</v>
+      </c>
+      <c r="H10" t="n">
+        <v>117.03983</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.005157566070556641</v>
+      </c>
+      <c r="D11" t="n">
+        <v>241.9114778995514</v>
+      </c>
+      <c r="E11" t="n">
+        <v>145.0739200353622</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>82.59948</v>
+      </c>
+      <c r="H11" t="n">
+        <v>120.4408</v>
+      </c>
+      <c r="I11" t="n">
+        <v>136.18269</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.00519266128540039</v>
+      </c>
+      <c r="D12" t="n">
+        <v>122.6372113227844</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4.499736309051514</v>
+      </c>
+      <c r="F12" t="n">
+        <v>65.32114706039428</v>
+      </c>
+      <c r="G12" t="n">
+        <v>79.09578</v>
+      </c>
+      <c r="H12" t="n">
+        <v>112.45094</v>
+      </c>
+      <c r="I12" t="n">
+        <v>126.93626</v>
+      </c>
+      <c r="J12" t="n">
+        <v>129.65291</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.005453729629516601</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1200.002472472191</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>73.0385</v>
+      </c>
+      <c r="H13" t="n">
+        <v>122.0004</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.005536580085754394</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1200.003913831711</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1200.001553058624</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>67.12663999999999</v>
+      </c>
+      <c r="H14" t="n">
+        <v>117.15093</v>
+      </c>
+      <c r="I14" t="n">
+        <v>225.8553</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.005507850646972656</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1119.451103448868</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1200.001509380341</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1200.001490688324</v>
+      </c>
+      <c r="G15" t="n">
+        <v>66.79935</v>
+      </c>
+      <c r="H15" t="n">
+        <v>106.10625</v>
+      </c>
+      <c r="I15" t="n">
+        <v>213.17338</v>
+      </c>
+      <c r="J15" t="n">
+        <v>431.84426</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
